--- a/03_mva_draft/mva_results_with_clst_name.xlsx
+++ b/03_mva_draft/mva_results_with_clst_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yt4/Projects/Sanger_OT_MVA/03_mva_draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E4863-B062-CA48-A74F-A95169F0D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F955ADD-2660-DF41-8E3D-CCA23932D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1813">
   <si>
     <t>N_cluster</t>
   </si>
@@ -4904,6 +4904,561 @@
   </si>
   <si>
     <t>GCST006100;NEALE2_6164_2;NEALE2_6160_1</t>
+  </si>
+  <si>
+    <t>EFOs</t>
+  </si>
+  <si>
+    <t>EFO_0007814</t>
+  </si>
+  <si>
+    <t>CHEBI_7772;;EFO_0008561;HP_0002036;EFO_0009544;EFO_0003948;EFO_0007010;EFO_0010282</t>
+  </si>
+  <si>
+    <t>MONDO_0002025;EFO_0003761;;EFO_0005230</t>
+  </si>
+  <si>
+    <t>EFO_0004695</t>
+  </si>
+  <si>
+    <t>EFO_0007660;</t>
+  </si>
+  <si>
+    <t>EFO_0005271</t>
+  </si>
+  <si>
+    <t>MONDO_0005178;EFO_0002506</t>
+  </si>
+  <si>
+    <t>EFO_0004350;;EFO_0004337;EFO_0008354</t>
+  </si>
+  <si>
+    <t>;EFO_0010701</t>
+  </si>
+  <si>
+    <t>EFO_0007989;EFO_0007997</t>
+  </si>
+  <si>
+    <t>EFO_0004305;EFO_0007978</t>
+  </si>
+  <si>
+    <t>EFO_0004611;EFO_0004574</t>
+  </si>
+  <si>
+    <t>EFO_0007490;;HP_0003418;MONDO_0045002</t>
+  </si>
+  <si>
+    <t>EFO_1000786;EFO_0002506</t>
+  </si>
+  <si>
+    <t>EFO_0004587</t>
+  </si>
+  <si>
+    <t>EFO_0009818;EFO_0007828</t>
+  </si>
+  <si>
+    <t>EFO_0009690;HP_0000020</t>
+  </si>
+  <si>
+    <t>;EFO_0007781</t>
+  </si>
+  <si>
+    <t>CHEBI_5855</t>
+  </si>
+  <si>
+    <t>EFO_0004980</t>
+  </si>
+  <si>
+    <t>EFO_0006941</t>
+  </si>
+  <si>
+    <t>EFO_0001073;EFO_0004340;;EFO_1001067</t>
+  </si>
+  <si>
+    <t>EFO_0007991;EFO_0007994;EFO_0007996</t>
+  </si>
+  <si>
+    <t>HP_0002619;MONDO_0004634, EFO_0007352;</t>
+  </si>
+  <si>
+    <t>EFO_0004253;MONDO_0004828</t>
+  </si>
+  <si>
+    <t>EFO_0009440;EFO_0009101</t>
+  </si>
+  <si>
+    <t>HP_0002315;EFO_0003821</t>
+  </si>
+  <si>
+    <t>EFO_0009387;EFO_0004143</t>
+  </si>
+  <si>
+    <t>EFO_0008111;EFO_0004326</t>
+  </si>
+  <si>
+    <t>EFO_0008205</t>
+  </si>
+  <si>
+    <t>EFO_0004312;EFO_0004314</t>
+  </si>
+  <si>
+    <t>HP_0030833, HP_0030834;</t>
+  </si>
+  <si>
+    <t>EFO_0009589;</t>
+  </si>
+  <si>
+    <t>EFO_0006335</t>
+  </si>
+  <si>
+    <t>EFO_0004526;</t>
+  </si>
+  <si>
+    <t>MONDO_0044782;EFO_0000280</t>
+  </si>
+  <si>
+    <t>EFO_0003922;EFO_0004704</t>
+  </si>
+  <si>
+    <t>EFO_0004735</t>
+  </si>
+  <si>
+    <t>MONDO_0005148;EFO_0000400;EFO_0001360, EFO_0009518;EFO_0001360;EFO_0007010</t>
+  </si>
+  <si>
+    <t>EFO_0007814;HP_0000545</t>
+  </si>
+  <si>
+    <t>EFO_0005935, EFO_0003144, EFO_0007041;EFO_0000319;EFO_0003777;EFO_0000537, GO_0042493, EFO_0003144;EFO_0000537, GO_0042493;EFO_0004264;EFO_1002032;EFO_0000537;EFO_0003763</t>
+  </si>
+  <si>
+    <t>EFO_0007908</t>
+  </si>
+  <si>
+    <t>MONDO_0002898;EFO_0004193;EFO_0009259</t>
+  </si>
+  <si>
+    <t>MONDO_0045002;MONDO_0000812;EFO_0009477</t>
+  </si>
+  <si>
+    <t>EFO_0004784;</t>
+  </si>
+  <si>
+    <t>EFO_0009713</t>
+  </si>
+  <si>
+    <t>HP_0100537;;EFO_1000438</t>
+  </si>
+  <si>
+    <t>EFO_1001491</t>
+  </si>
+  <si>
+    <t>;EFO_0000537;EFO_0007010;EFO_0004325;CHEBI_43755</t>
+  </si>
+  <si>
+    <t>HP_0011141;EFO_0001059;EFO_0009674</t>
+  </si>
+  <si>
+    <t>EFO_0004713</t>
+  </si>
+  <si>
+    <t>EFO_0003923</t>
+  </si>
+  <si>
+    <t>EFO_0004309</t>
+  </si>
+  <si>
+    <t>;EFO_1001055, HP_0000836;EFO_0004705;EFO_1000627;EFO_0007010</t>
+  </si>
+  <si>
+    <t>;EFO_0009595</t>
+  </si>
+  <si>
+    <t>EFO_0000319;HP_0100749</t>
+  </si>
+  <si>
+    <t>EFO_0008255;EFO_0007908</t>
+  </si>
+  <si>
+    <t>HP_0100716;</t>
+  </si>
+  <si>
+    <t>EFO_0004698</t>
+  </si>
+  <si>
+    <t>EFO_0004344, EFO_0005939;EFO_0004344</t>
+  </si>
+  <si>
+    <t>;EFO_0000405</t>
+  </si>
+  <si>
+    <t>EFO_0009588;EFO_0003761, EFO_0004247</t>
+  </si>
+  <si>
+    <t>EFO_0008354;EFO_0004874</t>
+  </si>
+  <si>
+    <t>EFO_0008546</t>
+  </si>
+  <si>
+    <t>EFO_0003821;EFO_0000618;MONDO_0005277</t>
+  </si>
+  <si>
+    <t>EFO_0007986;EFO_0010700</t>
+  </si>
+  <si>
+    <t>EFO_0007781</t>
+  </si>
+  <si>
+    <t>EFO_0005091</t>
+  </si>
+  <si>
+    <t>EFO_0004339;EFO_0004314</t>
+  </si>
+  <si>
+    <t>HP_0000023</t>
+  </si>
+  <si>
+    <t>EFO_0000270;MONDO_0004979;MONDO_0024623;EFO_0007010</t>
+  </si>
+  <si>
+    <t>EFO_0008111</t>
+  </si>
+  <si>
+    <t>EFO_0009589</t>
+  </si>
+  <si>
+    <t>EFO_0009749</t>
+  </si>
+  <si>
+    <t>EFO_0004308;EFO_0007988</t>
+  </si>
+  <si>
+    <t>EFO_0004528</t>
+  </si>
+  <si>
+    <t>EFO_0007006;EFO_0007704;</t>
+  </si>
+  <si>
+    <t>EFO_0009596</t>
+  </si>
+  <si>
+    <t>EFO_0004995;EFO_0001073;EFO_0005409;EFO_0004338;EFO_0004342;EFO_0005093</t>
+  </si>
+  <si>
+    <t>EFO_0004778</t>
+  </si>
+  <si>
+    <t>;EFO_0010130</t>
+  </si>
+  <si>
+    <t>;EFO_0004318</t>
+  </si>
+  <si>
+    <t>EFO_0007990;EFO_0007987</t>
+  </si>
+  <si>
+    <t>EFO_0000516</t>
+  </si>
+  <si>
+    <t>EFO_0000684;EFO_0000618;GO_1901554;EFO_0010282;EFO_0009676;EFO_0009676, EFO_1001986;EFO_0003766, HP_0009763, HP_0002315;HP_0001626, EFO_0000684;MONDO_0001318;HP_0002829</t>
+  </si>
+  <si>
+    <t>EFO_0008393;</t>
+  </si>
+  <si>
+    <t>EFO_0007796</t>
+  </si>
+  <si>
+    <t>HP_0002027;EFO_0009550</t>
+  </si>
+  <si>
+    <t>EFO_0007824;Orphanet_79364</t>
+  </si>
+  <si>
+    <t>EFO_0007946</t>
+  </si>
+  <si>
+    <t>MONDO_0002050;EFO_0003761, EFO_0007006;</t>
+  </si>
+  <si>
+    <t>EFO_0005090</t>
+  </si>
+  <si>
+    <t>EFO_0004842;EFO_0009389</t>
+  </si>
+  <si>
+    <t>;EFO_0007986</t>
+  </si>
+  <si>
+    <t>HP_0002140;EFO_0000712</t>
+  </si>
+  <si>
+    <t>;EFO_0004333</t>
+  </si>
+  <si>
+    <t>EFO_0004329</t>
+  </si>
+  <si>
+    <t>EFO_0009594;HP_0000737</t>
+  </si>
+  <si>
+    <t>EFO_0009801;</t>
+  </si>
+  <si>
+    <t>EFO_0004340;EFO_0001073;EFO_0009819</t>
+  </si>
+  <si>
+    <t>;EFO_0004337</t>
+  </si>
+  <si>
+    <t>EFO_0004465;EFO_0004468</t>
+  </si>
+  <si>
+    <t>EFO_0007984</t>
+  </si>
+  <si>
+    <t>EFO_1000941</t>
+  </si>
+  <si>
+    <t>EFO_0008002;EFO_0003940</t>
+  </si>
+  <si>
+    <t>EFO_0003761;EFO_0007781;</t>
+  </si>
+  <si>
+    <t>EFO_0004247</t>
+  </si>
+  <si>
+    <t>EFO_0007865</t>
+  </si>
+  <si>
+    <t>MONDO_0002050;EFO_0005230</t>
+  </si>
+  <si>
+    <t>;EFO_0004325</t>
+  </si>
+  <si>
+    <t>EFO_0009597;EFO_0009589;EFO_0007803</t>
+  </si>
+  <si>
+    <t>EFO_0007800</t>
+  </si>
+  <si>
+    <t>;EFO_0009802</t>
+  </si>
+  <si>
+    <t>MONDO_0005147;EFO_0001359</t>
+  </si>
+  <si>
+    <t>EFO_0007878;EFO_0004329</t>
+  </si>
+  <si>
+    <t>EFO_0009598;EFO_0007803</t>
+  </si>
+  <si>
+    <t>EFO_0003907;EFO_0004286</t>
+  </si>
+  <si>
+    <t>EFO_0003940;EFO_0008002</t>
+  </si>
+  <si>
+    <t>EFO_0004584</t>
+  </si>
+  <si>
+    <t>EFO_0004354;EFO_0008328</t>
+  </si>
+  <si>
+    <t>EFO_0008568;EFO_0003877</t>
+  </si>
+  <si>
+    <t>EFO_0000289;EFO_0000289, EFO_0004242</t>
+  </si>
+  <si>
+    <t>EFO_0004833;EFO_0007987;EFO_0009390;EFO_0009388;EFO_0007988</t>
+  </si>
+  <si>
+    <t>EFO_0007803;EFO_0009599</t>
+  </si>
+  <si>
+    <t>EFO_0004325</t>
+  </si>
+  <si>
+    <t>EFO_0009724;</t>
+  </si>
+  <si>
+    <t>;EFO_1001250;EFO_0009676;EFO_0009666</t>
+  </si>
+  <si>
+    <t>EFO_0004314</t>
+  </si>
+  <si>
+    <t>EFO_0003889</t>
+  </si>
+  <si>
+    <t>EFO_0007985</t>
+  </si>
+  <si>
+    <t>EFO_0009253;EFO_0010700;EFO_0007986</t>
+  </si>
+  <si>
+    <t>EFO_0004514;EFO_0009270</t>
+  </si>
+  <si>
+    <t>EFO_1001460;EFO_0009959;</t>
+  </si>
+  <si>
+    <t>EFO_0000305;MONDO_0007254</t>
+  </si>
+  <si>
+    <t>EFO_0003767;EFO_0000384</t>
+  </si>
+  <si>
+    <t>MONDO_0002050</t>
+  </si>
+  <si>
+    <t>EFO_0004799</t>
+  </si>
+  <si>
+    <t>EFO_0004312</t>
+  </si>
+  <si>
+    <t>EFO_0005230;EFO_0004262, EFO_0005230</t>
+  </si>
+  <si>
+    <t>EFO_0000217;EFO_0003948</t>
+  </si>
+  <si>
+    <t>EFO_0008475;HP_0000720</t>
+  </si>
+  <si>
+    <t>EFO_0004526;EFO_0004527;EFO_0004528</t>
+  </si>
+  <si>
+    <t>EFO_0007010</t>
+  </si>
+  <si>
+    <t>EFO_1000786, EFO_0004616;EFO_0004616;EFO_0009744, EFO_1000999;EFO_0002506;EFO_1000999;HP_0002999;HP_0003040;EFO_0009507</t>
+  </si>
+  <si>
+    <t>EFO_0005230;EFO_0009589;</t>
+  </si>
+  <si>
+    <t>HP_0002172;EFO_0009631</t>
+  </si>
+  <si>
+    <t>EFO_0001065;EFO_1000418</t>
+  </si>
+  <si>
+    <t>EFO_0007993</t>
+  </si>
+  <si>
+    <t>EFO_0007992</t>
+  </si>
+  <si>
+    <t>EFO_0000341;EFO_0006505, EFO_0000341;EFO_0000464;EFO_0006505</t>
+  </si>
+  <si>
+    <t>EFO_0008255;EFO_0009711</t>
+  </si>
+  <si>
+    <t>EFO_0000701;EFO_0005803, EFO_0000701</t>
+  </si>
+  <si>
+    <t>EFO_0001379, EFO_0000400;EFO_0001379, EFO_0001069, EFO_0000589</t>
+  </si>
+  <si>
+    <t>EFO_0004528;EFO_0004348;EFO_0004509;</t>
+  </si>
+  <si>
+    <t>EFO_0007992;EFO_0007995</t>
+  </si>
+  <si>
+    <t>EFO_0007803;</t>
+  </si>
+  <si>
+    <t>EFO_0006505, EFO_0000464;EFO_0000464, EFO_0006505;EFO_0000464</t>
+  </si>
+  <si>
+    <t>EFO_0004247;EFO_0003761</t>
+  </si>
+  <si>
+    <t>EFO_0006939;EFO_0006940</t>
+  </si>
+  <si>
+    <t>EFO_0004995;;EFO_0005409;EFO_0007777;EFO_0009805</t>
+  </si>
+  <si>
+    <t>EFO_0003768;EFO_0004318;</t>
+  </si>
+  <si>
+    <t>;EFO_0010703</t>
+  </si>
+  <si>
+    <t>EFO_0003761;</t>
+  </si>
+  <si>
+    <t>HP_0025267;EFO_0008341</t>
+  </si>
+  <si>
+    <t>EFO_0004344</t>
+  </si>
+  <si>
+    <t>EFO_0004242, EFO_0003888;EFO_0003888</t>
+  </si>
+  <si>
+    <t>EFO_0004247;EFO_0006788;EFO_0000677;MONDO_0002050;EFO_0000677, HP_0012075;HP_0012075;CHEBI_35469</t>
+  </si>
+  <si>
+    <t>EFO_0003882;EFO_0004260</t>
+  </si>
+  <si>
+    <t>EFO_0004518;EFO_0005208, EFO_0004518</t>
+  </si>
+  <si>
+    <t>EFO_0005192;EFO_0009188</t>
+  </si>
+  <si>
+    <t>MONDO_0002491;MONDO_0002326;MONDO_0021699;EFO_0003829;MONDO_0002046;EFO_0000677, MONDO_0021698;MONDO_0021698</t>
+  </si>
+  <si>
+    <t>EFO_0004466;EFO_0004469</t>
+  </si>
+  <si>
+    <t>EFO_0003913;EFO_1000985;EFO_0000612;;EFO_0000319;EFO_0001645;EFO_1001375</t>
+  </si>
+  <si>
+    <t>CHEBI_46195;</t>
+  </si>
+  <si>
+    <t>EFO_0004238;EFO_0008111;EFO_0005782</t>
+  </si>
+  <si>
+    <t>EFO_0004623;EFO_0004458</t>
+  </si>
+  <si>
+    <t>HP_0003124;EFO_0003774;CHEBI_9150;;GO_0036273;EFO_0007010</t>
+  </si>
+  <si>
+    <t>MONDO_0004867;EFO_0000270;EFO_0009759;EFO_0007010;EFO_0009433;EFO_0000270, EFO_0000544</t>
+  </si>
+  <si>
+    <t>HP_0001760;HP_0001822</t>
+  </si>
+  <si>
+    <t>EFO_0004736;EFO_0004532;EFO_0004735</t>
+  </si>
+  <si>
+    <t>;EFO_0007010</t>
+  </si>
+  <si>
+    <t>EFO_0003956;MONDO_0005271;EFO_0000540;EFO_0003956, EFO_0005854;EFO_0005854;</t>
+  </si>
+  <si>
+    <t>EFO_0003911, EFO_0000275;EFO_0003911;EFO_1001771;EFO_0004269, EFO_0000341;EFO_0000275;EFO_0003777</t>
+  </si>
+  <si>
+    <t>EFO_0000516;EFO_0003966</t>
   </si>
 </sst>
 </file>
@@ -5788,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5802,10 +6357,10 @@
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="42" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5819,25 +6374,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5851,25 +6409,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="5">
         <v>0.110106342186039</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5883,25 +6444,28 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="5">
         <v>4.4449172542576097E-2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5915,25 +6479,28 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="5">
         <v>7.5130875819424306E-2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -5947,25 +6514,28 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="5">
         <v>0.33688941645036402</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -5979,25 +6549,28 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="5">
         <v>0.154995969189379</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -6011,25 +6584,28 @@
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="5">
         <v>9.2414648815211095E-2</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -6042,26 +6618,27 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="5">
         <v>4.1506087856718298E-2</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -6075,25 +6652,28 @@
         <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="5">
         <v>5.2579823922603297E-2</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -6106,26 +6686,27 @@
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="5">
         <v>3.4258589022286498E-2</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -6139,25 +6720,28 @@
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="5">
         <v>0.33972944221660301</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -6171,25 +6755,28 @@
         <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="5">
         <v>0.34865602174249199</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -6203,25 +6790,28 @@
         <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="5">
         <v>0.26752517151569899</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
@@ -6234,26 +6824,27 @@
       <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="5">
         <v>4.5551486904227001E-2</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -6267,25 +6858,28 @@
         <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="5">
         <v>0.35029110035213401</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -6299,25 +6893,28 @@
         <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="5">
         <v>0.28707856900491402</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -6331,25 +6928,28 @@
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="5">
         <v>4.6310116311980898E-2</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
@@ -6363,25 +6963,28 @@
         <v>105</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="5">
         <v>5.0474816812481199E-2</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>110</v>
       </c>
@@ -6395,25 +6998,28 @@
         <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="5">
         <v>0.29998607905851798</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>116</v>
       </c>
@@ -6427,25 +7033,28 @@
         <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="5">
         <v>8.7704852256042701E-2</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>122</v>
       </c>
@@ -6459,25 +7068,28 @@
         <v>123</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="5">
         <v>1.1887672056434E-2</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -6491,25 +7103,28 @@
         <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="5">
         <v>8.4983444106617997E-2</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>134</v>
       </c>
@@ -6523,25 +7138,28 @@
         <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="5">
         <v>1.9597955615367198E-2</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>140</v>
       </c>
@@ -6555,25 +7173,28 @@
         <v>141</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="5">
         <v>0.51093534632923299</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>146</v>
       </c>
@@ -6587,25 +7208,28 @@
         <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="5">
         <v>5.6713028080310202E-2</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
@@ -6619,25 +7243,28 @@
         <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="5">
         <v>0.331516222558014</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
@@ -6651,25 +7278,28 @@
         <v>159</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="5">
         <v>0.23502290738950701</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>164</v>
       </c>
@@ -6683,25 +7313,28 @@
         <v>165</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="5">
         <v>5.8969376599945E-2</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -6715,25 +7348,28 @@
         <v>171</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="5">
         <v>0.140464841332548</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" t="s">
         <v>175</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>176</v>
       </c>
@@ -6747,25 +7383,28 @@
         <v>177</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="5">
         <v>1.32791148485626E-2</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" t="s">
         <v>181</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>182</v>
       </c>
@@ -6778,26 +7417,27 @@
       <c r="D31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="5">
         <v>5.2414832657155401E-2</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
@@ -6810,26 +7450,27 @@
       <c r="D32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="5">
         <v>0.119285514820422</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
@@ -6843,25 +7484,28 @@
         <v>194</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="5">
         <v>0.14620258215048801</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>199</v>
       </c>
@@ -6875,25 +7519,28 @@
         <v>200</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="5">
         <v>6.9812311012184103E-2</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>204</v>
       </c>
@@ -6907,25 +7554,28 @@
         <v>205</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="5">
         <v>3.8148271985784098E-2</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>209</v>
       </c>
@@ -6939,25 +7589,28 @@
         <v>210</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="5">
         <v>0.181275546097526</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>214</v>
       </c>
@@ -6971,25 +7624,28 @@
         <v>215</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="5">
         <v>0.263280919146411</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" t="s">
         <v>219</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>220</v>
       </c>
@@ -7003,25 +7659,28 @@
         <v>221</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="5">
         <v>0.22284473396940899</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" t="s">
         <v>225</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>226</v>
       </c>
@@ -7035,25 +7694,28 @@
         <v>227</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="5">
         <v>5.8895217137470403E-2</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" t="s">
         <v>231</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>232</v>
       </c>
@@ -7067,25 +7729,28 @@
         <v>233</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="5">
         <v>7.88236860822914E-2</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="J40" t="s">
         <v>237</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>238</v>
       </c>
@@ -7099,25 +7764,28 @@
         <v>239</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="5">
         <v>0.29549534421282803</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" t="s">
         <v>243</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -7131,25 +7799,28 @@
         <v>245</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="5">
         <v>0.40185399344614098</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" t="s">
         <v>249</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>250</v>
       </c>
@@ -7163,25 +7834,28 @@
         <v>251</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="5">
         <v>0.292778785404058</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" t="s">
         <v>255</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>256</v>
       </c>
@@ -7194,26 +7868,27 @@
       <c r="D44" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="5">
         <v>3.8342049130019401E-2</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" t="s">
         <v>261</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -7227,25 +7902,28 @@
         <v>263</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="5">
         <v>0.14755163600645799</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="J45" t="s">
         <v>267</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>268</v>
       </c>
@@ -7259,25 +7937,28 @@
         <v>269</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="5">
         <v>0.176738011278185</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="J46" t="s">
         <v>273</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>274</v>
       </c>
@@ -7291,25 +7972,28 @@
         <v>275</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="5">
         <v>0.19779887845075</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J47" t="s">
         <v>279</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>280</v>
       </c>
@@ -7323,25 +8007,28 @@
         <v>281</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="5">
         <v>0.27330043641512097</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" t="s">
         <v>285</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>286</v>
       </c>
@@ -7355,25 +8042,28 @@
         <v>287</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="5">
         <v>7.6651168448970602E-2</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" t="s">
         <v>291</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>292</v>
       </c>
@@ -7386,26 +8076,27 @@
       <c r="D50" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="5">
         <v>0.22811199816222499</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" t="s">
         <v>297</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>298</v>
       </c>
@@ -7419,25 +8110,28 @@
         <v>299</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="5">
         <v>1.5258064964865301E-2</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J51" t="s">
         <v>303</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>304</v>
       </c>
@@ -7451,25 +8145,28 @@
         <v>305</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="5">
         <v>3.3642503093418201E-2</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" t="s">
         <v>309</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>310</v>
       </c>
@@ -7483,25 +8180,28 @@
         <v>311</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="5">
         <v>3.9386783908216101E-2</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="J53" t="s">
         <v>315</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>316</v>
       </c>
@@ -7515,25 +8215,28 @@
         <v>317</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="5">
         <v>0.21298538383521001</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="J54" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>322</v>
       </c>
@@ -7547,25 +8250,28 @@
         <v>323</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="5">
         <v>2.89310922990406E-2</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="J55" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>327</v>
       </c>
@@ -7579,25 +8285,28 @@
         <v>328</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="5">
         <v>2.0033698590434201E-2</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" t="s">
         <v>332</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>333</v>
       </c>
@@ -7611,25 +8320,28 @@
         <v>334</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="5">
         <v>3.25613079547016E-2</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="J57" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>338</v>
       </c>
@@ -7643,25 +8355,28 @@
         <v>339</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="5">
         <v>0.41699876678101</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="J58" t="s">
         <v>343</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>344</v>
       </c>
@@ -7675,25 +8390,28 @@
         <v>345</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="5">
         <v>0.19604664549166401</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="J59" t="s">
         <v>349</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>350</v>
       </c>
@@ -7707,25 +8425,28 @@
         <v>351</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="5">
         <v>2.9699037406935001E-2</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="J60" t="s">
         <v>31</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>355</v>
       </c>
@@ -7739,25 +8460,28 @@
         <v>356</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="5">
         <v>0.29472277553328302</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="J61" t="s">
         <v>360</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>361</v>
       </c>
@@ -7771,25 +8495,28 @@
         <v>362</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="5">
         <v>0.43260691442913402</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="J62" t="s">
         <v>267</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>366</v>
       </c>
@@ -7803,25 +8530,28 @@
         <v>367</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="5">
         <v>0.469783621747764</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="J63" t="s">
         <v>371</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>372</v>
       </c>
@@ -7835,25 +8565,28 @@
         <v>373</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="5">
         <v>0.118855196779051</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="J64" t="s">
         <v>377</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>378</v>
       </c>
@@ -7867,25 +8600,28 @@
         <v>379</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="5">
         <v>5.34529379526456E-2</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" t="s">
         <v>383</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>384</v>
       </c>
@@ -7899,25 +8635,28 @@
         <v>385</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="5">
         <v>2.3956675086811301E-2</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J66" t="s">
         <v>389</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>390</v>
       </c>
@@ -7931,25 +8670,28 @@
         <v>391</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="5">
         <v>2.34263829106621E-2</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J67" t="s">
         <v>395</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>396</v>
       </c>
@@ -7962,26 +8704,27 @@
       <c r="D68" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="5">
         <v>0.18272036453284901</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" t="s">
         <v>401</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>402</v>
       </c>
@@ -7995,25 +8738,28 @@
         <v>403</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="5">
         <v>7.6743417641725098E-2</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" t="s">
         <v>407</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>408</v>
       </c>
@@ -8027,25 +8773,28 @@
         <v>409</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="5">
         <v>8.0282986304415396E-2</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J70" t="s">
         <v>413</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>414</v>
       </c>
@@ -8059,25 +8808,28 @@
         <v>415</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="5">
         <v>0.13932897298017499</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J71" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>419</v>
       </c>
@@ -8091,25 +8843,28 @@
         <v>420</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="5">
         <v>2.5300356088064E-2</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" t="s">
         <v>424</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>425</v>
       </c>
@@ -8123,25 +8878,28 @@
         <v>426</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="5">
         <v>8.7475300846758502E-2</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="J73" t="s">
         <v>430</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>431</v>
       </c>
@@ -8155,25 +8913,28 @@
         <v>432</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="5">
         <v>7.3351632214532003E-2</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="J74" t="s">
         <v>436</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>437</v>
       </c>
@@ -8187,25 +8948,28 @@
         <v>438</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="5">
         <v>1.13639041179548E-2</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="J75" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>442</v>
       </c>
@@ -8219,25 +8983,28 @@
         <v>443</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="5">
         <v>2.07779755668384E-2</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="J76" t="s">
         <v>447</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>448</v>
       </c>
@@ -8251,25 +9018,28 @@
         <v>449</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="5">
         <v>0.29025555390753999</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="J77" t="s">
         <v>453</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>454</v>
       </c>
@@ -8283,25 +9053,28 @@
         <v>455</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="5">
         <v>0.36097216915462499</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="J78" t="s">
         <v>459</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>460</v>
       </c>
@@ -8315,25 +9088,28 @@
         <v>461</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="5">
         <v>6.0396820568960702E-2</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="J79" t="s">
         <v>465</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>466</v>
       </c>
@@ -8347,25 +9123,28 @@
         <v>467</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="5">
         <v>0.36714017747916899</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="J80" t="s">
         <v>471</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>472</v>
       </c>
@@ -8379,25 +9158,28 @@
         <v>473</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="5">
         <v>0.79845555348898301</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="J81" t="s">
         <v>477</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>478</v>
       </c>
@@ -8411,25 +9193,28 @@
         <v>479</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H82" s="2">
+      <c r="I82" s="5">
         <v>4.8158226221203498E-2</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="J82" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>483</v>
       </c>
@@ -8443,25 +9228,28 @@
         <v>484</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H83" s="2">
+      <c r="I83" s="5">
         <v>7.5585563052388699E-2</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="J83" t="s">
         <v>488</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>489</v>
       </c>
@@ -8475,25 +9263,28 @@
         <v>490</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H84" s="2">
+      <c r="I84" s="5">
         <v>6.3216133085589099E-2</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="J84" t="s">
         <v>494</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>495</v>
       </c>
@@ -8507,25 +9298,28 @@
         <v>496</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H85" s="2">
+      <c r="I85" s="5">
         <v>6.5790677392723096E-2</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="J85" t="s">
         <v>500</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>501</v>
       </c>
@@ -8539,25 +9333,28 @@
         <v>502</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="5">
         <v>0.18013110379942601</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="J86" t="s">
         <v>506</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>507</v>
       </c>
@@ -8571,25 +9368,28 @@
         <v>508</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I87" s="5">
         <v>0.29005032923011198</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="J87" t="s">
         <v>512</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>513</v>
       </c>
@@ -8603,25 +9403,28 @@
         <v>514</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H88" s="2">
+      <c r="I88" s="5">
         <v>0.124723467778101</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="J88" t="s">
         <v>518</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>519</v>
       </c>
@@ -8635,25 +9438,28 @@
         <v>520</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H89" s="2">
+      <c r="I89" s="5">
         <v>8.5859974996614297E-2</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="J89" t="s">
         <v>524</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>525</v>
       </c>
@@ -8667,25 +9473,28 @@
         <v>526</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H90" s="2">
+      <c r="I90" s="5">
         <v>5.8435282439736801E-2</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="J90" t="s">
         <v>530</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>531</v>
       </c>
@@ -8699,25 +9508,28 @@
         <v>532</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H91" s="2">
+      <c r="I91" s="5">
         <v>0.236749528770232</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="J91" t="s">
         <v>536</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>537</v>
       </c>
@@ -8731,25 +9543,28 @@
         <v>538</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H92" s="2">
+      <c r="I92" s="5">
         <v>0.132542521764585</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="J92" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>542</v>
       </c>
@@ -8763,25 +9578,28 @@
         <v>543</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H93" s="2">
+      <c r="I93" s="5">
         <v>0.13392872810005499</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="J93" t="s">
         <v>547</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>548</v>
       </c>
@@ -8795,25 +9613,28 @@
         <v>549</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I94" s="5">
         <v>0.138492245102803</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="J94" t="s">
         <v>553</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>554</v>
       </c>
@@ -8827,25 +9648,28 @@
         <v>555</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="H95" s="2">
+      <c r="I95" s="5">
         <v>0.104966114289841</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="J95" t="s">
         <v>559</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>560</v>
       </c>
@@ -8859,25 +9683,28 @@
         <v>561</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H96" s="2">
+      <c r="I96" s="5">
         <v>0.13295342260096499</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="J96" t="s">
         <v>565</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>566</v>
       </c>
@@ -8891,25 +9718,28 @@
         <v>567</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H97" s="2">
+      <c r="I97" s="5">
         <v>9.8236550886535795E-2</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="J97" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>571</v>
       </c>
@@ -8923,25 +9753,28 @@
         <v>572</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H98" s="2">
+      <c r="I98" s="5">
         <v>0.25137350835036398</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="J98" t="s">
         <v>576</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>577</v>
       </c>
@@ -8955,25 +9788,28 @@
         <v>578</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H99" s="2">
+      <c r="I99" s="5">
         <v>2.5675489243657399E-2</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="J99" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>582</v>
       </c>
@@ -8987,25 +9823,28 @@
         <v>583</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H100" s="2">
+      <c r="I100" s="5">
         <v>8.7894556455192493E-2</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="J100" t="s">
         <v>587</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>588</v>
       </c>
@@ -9019,25 +9858,28 @@
         <v>589</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I101" s="5">
         <v>9.6667633289477597E-2</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="J101" t="s">
         <v>593</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>594</v>
       </c>
@@ -9051,25 +9893,28 @@
         <v>595</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="H102" s="2">
+      <c r="I102" s="5">
         <v>3.3476854297808598E-2</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="J102" t="s">
         <v>599</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>600</v>
       </c>
@@ -9083,25 +9928,28 @@
         <v>601</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H103" s="2">
+      <c r="I103" s="5">
         <v>1.8363635791237301E-2</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="J103" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>605</v>
       </c>
@@ -9115,25 +9963,28 @@
         <v>606</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H104" s="2">
+      <c r="I104" s="5">
         <v>0.37624112060836701</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="J104" t="s">
         <v>610</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>611</v>
       </c>
@@ -9147,25 +9998,28 @@
         <v>612</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H105" s="2">
+      <c r="I105" s="5">
         <v>0.120701451807284</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="J105" t="s">
         <v>616</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>617</v>
       </c>
@@ -9179,25 +10033,28 @@
         <v>618</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H106" s="2">
+      <c r="I106" s="5">
         <v>0.13955752282775999</v>
       </c>
-      <c r="I106" s="5" t="s">
+      <c r="J106" t="s">
         <v>622</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>623</v>
       </c>
@@ -9211,25 +10068,28 @@
         <v>624</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="H107" s="2">
+      <c r="I107" s="5">
         <v>9.5705355402887798E-2</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="J107" t="s">
         <v>628</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>629</v>
       </c>
@@ -9243,25 +10103,28 @@
         <v>630</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="H108" s="2">
+      <c r="I108" s="5">
         <v>0.29740070883161102</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="J108" t="s">
         <v>634</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>635</v>
       </c>
@@ -9275,25 +10138,28 @@
         <v>636</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H109" s="2">
+      <c r="I109" s="5">
         <v>0.122951130402432</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="J109" t="s">
         <v>640</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>641</v>
       </c>
@@ -9307,25 +10173,28 @@
         <v>642</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H110" s="2">
+      <c r="I110" s="5">
         <v>1.37600036383261E-2</v>
       </c>
-      <c r="I110" s="5" t="s">
+      <c r="J110" t="s">
         <v>646</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>647</v>
       </c>
@@ -9339,25 +10208,28 @@
         <v>648</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H111" s="2">
+      <c r="I111" s="5">
         <v>7.2833669923167699E-2</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="J111" t="s">
         <v>652</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>653</v>
       </c>
@@ -9370,26 +10242,27 @@
       <c r="D112" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H112" s="2">
+      <c r="I112" s="5">
         <v>2.9088086664352301E-2</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="J112" t="s">
         <v>13</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>658</v>
       </c>
@@ -9403,25 +10276,28 @@
         <v>659</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="H113" s="2">
+      <c r="I113" s="5">
         <v>7.5628693645911405E-2</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="J113" t="s">
         <v>663</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>664</v>
       </c>
@@ -9435,25 +10311,28 @@
         <v>665</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H114" s="2">
+      <c r="I114" s="5">
         <v>6.8504932088010895E-2</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="J114" t="s">
         <v>669</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>670</v>
       </c>
@@ -9467,25 +10346,28 @@
         <v>671</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="H115" s="2">
+      <c r="I115" s="5">
         <v>7.4147510097785002E-2</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="J115" t="s">
         <v>675</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>676</v>
       </c>
@@ -9499,25 +10381,28 @@
         <v>677</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H116" s="2">
+      <c r="I116" s="5">
         <v>0.55901077501326601</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="J116" t="s">
         <v>681</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>682</v>
       </c>
@@ -9531,25 +10416,28 @@
         <v>683</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="H117" s="2">
+      <c r="I117" s="5">
         <v>0.23449670587213201</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="J117" t="s">
         <v>687</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>688</v>
       </c>
@@ -9563,25 +10451,28 @@
         <v>689</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="H118" s="2">
+      <c r="I118" s="5">
         <v>0.19912053459741699</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="J118" t="s">
         <v>693</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>694</v>
       </c>
@@ -9595,25 +10486,28 @@
         <v>695</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="H119" s="2">
+      <c r="I119" s="5">
         <v>0.29411159435432899</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="J119" t="s">
         <v>699</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>700</v>
       </c>
@@ -9627,25 +10521,28 @@
         <v>701</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="H120" s="2">
+      <c r="I120" s="5">
         <v>9.5690378409230403E-3</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="J120" t="s">
         <v>267</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>705</v>
       </c>
@@ -9659,25 +10556,28 @@
         <v>706</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H121" s="2">
+      <c r="I121" s="5">
         <v>5.3130975573867902E-2</v>
       </c>
-      <c r="I121" s="5" t="s">
+      <c r="J121" t="s">
         <v>710</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>711</v>
       </c>
@@ -9691,25 +10591,28 @@
         <v>712</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="H122" s="2">
+      <c r="I122" s="5">
         <v>0.109017098775405</v>
       </c>
-      <c r="I122" s="5" t="s">
+      <c r="J122" t="s">
         <v>716</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>717</v>
       </c>
@@ -9723,25 +10626,28 @@
         <v>718</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="H123" s="2">
+      <c r="I123" s="5">
         <v>5.0312176872998299E-2</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="J123" t="s">
         <v>722</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>723</v>
       </c>
@@ -9755,25 +10661,28 @@
         <v>724</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="H124" s="2">
+      <c r="I124" s="5">
         <v>3.9008503283863599E-2</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="J124" t="s">
         <v>13</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>728</v>
       </c>
@@ -9787,25 +10696,28 @@
         <v>729</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="H125" s="2">
+      <c r="I125" s="5">
         <v>8.1761931734246604E-2</v>
       </c>
-      <c r="I125" s="5" t="s">
+      <c r="J125" t="s">
         <v>733</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>734</v>
       </c>
@@ -9819,25 +10731,28 @@
         <v>735</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="H126" s="2">
+      <c r="I126" s="5">
         <v>6.7375532490130605E-2</v>
       </c>
-      <c r="I126" s="5" t="s">
+      <c r="J126" t="s">
         <v>739</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>740</v>
       </c>
@@ -9851,25 +10766,28 @@
         <v>741</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="H127" s="2">
+      <c r="I127" s="5">
         <v>4.3438766805975297E-2</v>
       </c>
-      <c r="I127" s="5" t="s">
+      <c r="J127" t="s">
         <v>745</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>746</v>
       </c>
@@ -9883,25 +10801,28 @@
         <v>747</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="H128" s="2">
+      <c r="I128" s="5">
         <v>8.5557491823827506E-2</v>
       </c>
-      <c r="I128" s="5" t="s">
+      <c r="J128" t="s">
         <v>751</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>752</v>
       </c>
@@ -9915,25 +10836,28 @@
         <v>753</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="H129" s="2">
+      <c r="I129" s="5">
         <v>0.23045405251420101</v>
       </c>
-      <c r="I129" s="5" t="s">
+      <c r="J129" t="s">
         <v>757</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="K129" s="3" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>758</v>
       </c>
@@ -9947,25 +10871,28 @@
         <v>759</v>
       </c>
       <c r="E130" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="H130" s="2">
+      <c r="I130" s="5">
         <v>4.5539313749873203E-2</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="J130" t="s">
         <v>763</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>764</v>
       </c>
@@ -9979,25 +10906,28 @@
         <v>765</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="H131" s="2">
+      <c r="I131" s="5">
         <v>0.36745323513809902</v>
       </c>
-      <c r="I131" s="5" t="s">
+      <c r="J131" t="s">
         <v>769</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="K131" s="3" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>770</v>
       </c>
@@ -10011,25 +10941,28 @@
         <v>771</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="H132" s="2">
+      <c r="I132" s="5">
         <v>0.115548065010701</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="J132" t="s">
         <v>775</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="K132" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>776</v>
       </c>
@@ -10043,25 +10976,28 @@
         <v>777</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="H133" s="2">
+      <c r="I133" s="5">
         <v>6.45121920025611E-2</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="J133" t="s">
         <v>781</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="K133" s="3" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>782</v>
       </c>
@@ -10075,25 +11011,28 @@
         <v>783</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="H134" s="2">
+      <c r="I134" s="5">
         <v>1.1780615518344801E-2</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="J134" t="s">
         <v>13</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>787</v>
       </c>
@@ -10107,25 +11046,28 @@
         <v>788</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="H135" s="2">
+      <c r="I135" s="5">
         <v>5.24188904224425E-2</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="J135" t="s">
         <v>792</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="K135" s="3" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>793</v>
       </c>
@@ -10139,25 +11081,28 @@
         <v>794</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="H136" s="2">
+      <c r="I136" s="5">
         <v>0.64406650130420295</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="J136" t="s">
         <v>798</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="K136" s="3" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>799</v>
       </c>
@@ -10171,25 +11116,28 @@
         <v>800</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="H137" s="2">
+      <c r="I137" s="5">
         <v>0.15080988861383199</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="J137" t="s">
         <v>804</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>805</v>
       </c>
@@ -10203,25 +11151,28 @@
         <v>806</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="H138" s="2">
+      <c r="I138" s="5">
         <v>2.9471388226959602E-2</v>
       </c>
-      <c r="I138" s="5" t="s">
+      <c r="J138" t="s">
         <v>810</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="K138" s="3" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>811</v>
       </c>
@@ -10234,26 +11185,27 @@
       <c r="D139" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="H139" s="2">
+      <c r="I139" s="5">
         <v>9.6925116855710994E-2</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="J139" t="s">
         <v>816</v>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="K139" s="3" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>817</v>
       </c>
@@ -10267,25 +11219,28 @@
         <v>818</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="H140" s="2">
+      <c r="I140" s="5">
         <v>0.45210888732872001</v>
       </c>
-      <c r="I140" s="5" t="s">
+      <c r="J140" t="s">
         <v>13</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="K140" s="3" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>822</v>
       </c>
@@ -10299,25 +11254,28 @@
         <v>823</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="H141" s="2">
+      <c r="I141" s="5">
         <v>0.24809268731057599</v>
       </c>
-      <c r="I141" s="5" t="s">
+      <c r="J141" t="s">
         <v>827</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="K141" s="3" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>828</v>
       </c>
@@ -10331,25 +11289,28 @@
         <v>829</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="H142" s="2">
+      <c r="I142" s="5">
         <v>6.4450541836395994E-2</v>
       </c>
-      <c r="I142" s="5" t="s">
+      <c r="J142" t="s">
         <v>833</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="K142" s="3" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>834</v>
       </c>
@@ -10363,25 +11324,28 @@
         <v>835</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="H143" s="2">
+      <c r="I143" s="5">
         <v>4.1483557283646E-2</v>
       </c>
-      <c r="I143" s="5" t="s">
+      <c r="J143" t="s">
         <v>13</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="K143" s="3" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>839</v>
       </c>
@@ -10395,25 +11359,28 @@
         <v>840</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="H144" s="2">
+      <c r="I144" s="5">
         <v>0.12918616201049099</v>
       </c>
-      <c r="I144" s="5" t="s">
+      <c r="J144" t="s">
         <v>844</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>845</v>
       </c>
@@ -10427,25 +11394,28 @@
         <v>846</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H145" s="2">
+      <c r="I145" s="5">
         <v>3.3917424272175298E-2</v>
       </c>
-      <c r="I145" s="5" t="s">
+      <c r="J145" t="s">
         <v>850</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="K145" s="3" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>851</v>
       </c>
@@ -10459,25 +11429,28 @@
         <v>852</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="H146" s="2">
+      <c r="I146" s="5">
         <v>0.25725737320120901</v>
       </c>
-      <c r="I146" s="5" t="s">
+      <c r="J146" t="s">
         <v>856</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="K146" s="3" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>857</v>
       </c>
@@ -10491,25 +11464,28 @@
         <v>858</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="H147" s="2">
+      <c r="I147" s="5">
         <v>1.02354330090445E-2</v>
       </c>
-      <c r="I147" s="5" t="s">
+      <c r="J147" t="s">
         <v>862</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="K147" s="3" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>863</v>
       </c>
@@ -10523,25 +11499,28 @@
         <v>864</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="H148" s="2">
+      <c r="I148" s="5">
         <v>0.33350145407603599</v>
       </c>
-      <c r="I148" s="5" t="s">
+      <c r="J148" t="s">
         <v>868</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="K148" s="3" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>869</v>
       </c>
@@ -10555,25 +11534,28 @@
         <v>870</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="H149" s="2">
+      <c r="I149" s="5">
         <v>0.241187598088279</v>
       </c>
-      <c r="I149" s="5" t="s">
+      <c r="J149" t="s">
         <v>874</v>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="K149" s="3" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>875</v>
       </c>
@@ -10587,25 +11569,28 @@
         <v>876</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="H150" s="2">
+      <c r="I150" s="5">
         <v>0.58042835596587805</v>
       </c>
-      <c r="I150" s="5" t="s">
+      <c r="J150" t="s">
         <v>880</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="K150" s="3" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>881</v>
       </c>
@@ -10619,25 +11604,28 @@
         <v>882</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="H151" s="2">
+      <c r="I151" s="5">
         <v>5.4299137154564997E-2</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="J151" t="s">
         <v>886</v>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="K151" s="3" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>887</v>
       </c>
@@ -10651,25 +11639,28 @@
         <v>888</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="H152" s="2">
+      <c r="I152" s="5">
         <v>0.22552976183846599</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="J152" t="s">
         <v>13</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>892</v>
       </c>
@@ -10683,25 +11674,28 @@
         <v>893</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="H153" s="2">
+      <c r="I153" s="5">
         <v>0.41161918790796997</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="J153" t="s">
         <v>897</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="K153" s="3" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>898</v>
       </c>
@@ -10715,25 +11709,28 @@
         <v>899</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="H154" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="H154" s="2">
+      <c r="I154" s="5">
         <v>0.159337662072464</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="J154" t="s">
         <v>903</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="K154" s="3" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>904</v>
       </c>
@@ -10747,25 +11744,28 @@
         <v>905</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="H155" s="2">
+      <c r="I155" s="5">
         <v>2.11740138972643E-2</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="J155" t="s">
         <v>13</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="K155" s="3" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>909</v>
       </c>
@@ -10779,25 +11779,28 @@
         <v>910</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="H156" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="H156" s="2">
+      <c r="I156" s="5">
         <v>1.8199697865185899E-2</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="J156" t="s">
         <v>13</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="K156" s="3" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>914</v>
       </c>
@@ -10811,25 +11814,28 @@
         <v>915</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="H157" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="H157" s="2">
+      <c r="I157" s="5">
         <v>0.249883310792722</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="J157" t="s">
         <v>919</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="K157" s="3" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>920</v>
       </c>
@@ -10842,26 +11848,27 @@
       <c r="D158" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="H158" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="H158" s="2">
+      <c r="I158" s="5">
         <v>0.237526214663419</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="J158" t="s">
         <v>925</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="K158" s="3" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>926</v>
       </c>
@@ -10875,25 +11882,28 @@
         <v>927</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="H159" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="H159" s="2">
+      <c r="I159" s="5">
         <v>3.8186126316405201E-2</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="J159" t="s">
         <v>931</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="K159" s="3" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>932</v>
       </c>
@@ -10907,25 +11917,28 @@
         <v>933</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="H160" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="H160" s="2">
+      <c r="I160" s="5">
         <v>2.2739999593973301E-2</v>
       </c>
-      <c r="I160" s="5" t="s">
+      <c r="J160" t="s">
         <v>13</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="K160" s="3" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>937</v>
       </c>
@@ -10938,26 +11951,27 @@
       <c r="D161" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="2"/>
+      <c r="F161" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="H161" s="2">
+      <c r="I161" s="5">
         <v>3.1648936834940002E-2</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="J161" t="s">
         <v>942</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="K161" s="3" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>943</v>
       </c>
@@ -10971,25 +11985,28 @@
         <v>944</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="H162" s="2">
+      <c r="I162" s="5">
         <v>7.2975376293476099E-2</v>
       </c>
-      <c r="I162" s="5" t="s">
+      <c r="J162" t="s">
         <v>13</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="K162" s="3" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>948</v>
       </c>
@@ -11002,26 +12019,27 @@
       <c r="D163" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="G163" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="H163" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="H163" s="2">
+      <c r="I163" s="5">
         <v>2.5228398047078899E-2</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="J163" t="s">
         <v>953</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="K163" s="3" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>954</v>
       </c>
@@ -11035,25 +12053,28 @@
         <v>955</v>
       </c>
       <c r="E164" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="H164" s="2">
+      <c r="I164" s="5">
         <v>0.49902913298703799</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="J164" t="s">
         <v>959</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="K164" s="3" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>960</v>
       </c>
@@ -11067,25 +12088,28 @@
         <v>961</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="H165" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="H165" s="2">
+      <c r="I165" s="5">
         <v>1.9075679450144701E-2</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="J165" t="s">
         <v>13</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="K165" s="3" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>965</v>
       </c>
@@ -11099,25 +12123,28 @@
         <v>966</v>
       </c>
       <c r="E166" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="G166" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="H166" s="2">
+      <c r="I166" s="5">
         <v>0.13981791864318599</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="J166" t="s">
         <v>970</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="K166" s="3" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>971</v>
       </c>
@@ -11131,25 +12158,28 @@
         <v>972</v>
       </c>
       <c r="E167" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="H167" s="2">
+      <c r="I167" s="5">
         <v>5.7539070849154203E-2</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="J167" t="s">
         <v>976</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="K167" s="3" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>977</v>
       </c>
@@ -11163,25 +12193,28 @@
         <v>978</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="H168" s="2">
+      <c r="I168" s="5">
         <v>3.3432968980102402E-2</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="J168" t="s">
         <v>982</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="K168" s="3" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>983</v>
       </c>
@@ -11195,25 +12228,28 @@
         <v>984</v>
       </c>
       <c r="E169" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="H169" s="2">
+      <c r="I169" s="5">
         <v>4.2107151165627701E-2</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="J169" t="s">
         <v>13</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="K169" s="3" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>988</v>
       </c>
@@ -11227,25 +12263,28 @@
         <v>989</v>
       </c>
       <c r="E170" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="H170" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="H170" s="2">
+      <c r="I170" s="5">
         <v>0.20921962447859199</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="J170" t="s">
         <v>993</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="K170" s="3" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>994</v>
       </c>
@@ -11258,26 +12297,27 @@
       <c r="D171" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="H171" s="2">
+      <c r="I171" s="5">
         <v>0.47257030525501498</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="J171" t="s">
         <v>999</v>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="K171" s="3" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1000</v>
       </c>
@@ -11290,26 +12330,27 @@
       <c r="D172" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="2"/>
+      <c r="F172" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="H172" s="2">
+      <c r="I172" s="5">
         <v>9.7209641928176702E-2</v>
       </c>
-      <c r="I172" s="5" t="s">
+      <c r="J172" t="s">
         <v>1005</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="K172" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1006</v>
       </c>
@@ -11323,25 +12364,28 @@
         <v>1007</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="H173" s="2">
+      <c r="I173" s="5">
         <v>5.6466057252840103E-2</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="J173" t="s">
         <v>1011</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="K173" s="3" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1012</v>
       </c>
@@ -11355,25 +12399,28 @@
         <v>1013</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="H174" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="H174" s="2">
+      <c r="I174" s="5">
         <v>4.04429273733172E-2</v>
       </c>
-      <c r="I174" s="5" t="s">
+      <c r="J174" t="s">
         <v>1017</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="K174" s="3" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1018</v>
       </c>
@@ -11387,25 +12434,28 @@
         <v>1019</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="H175" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="H175" s="2">
+      <c r="I175" s="5">
         <v>3.6469837579004002E-2</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="J175" t="s">
         <v>1023</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="K175" s="3" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>1024</v>
       </c>
@@ -11419,25 +12469,28 @@
         <v>1025</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="G176" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="H176" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="H176" s="2">
+      <c r="I176" s="5">
         <v>1.0253717563377E-2</v>
       </c>
-      <c r="I176" s="5" t="s">
+      <c r="J176" t="s">
         <v>13</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="K176" s="3" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1029</v>
       </c>
@@ -11451,25 +12504,28 @@
         <v>1030</v>
       </c>
       <c r="E177" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="G177" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="H177" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="H177" s="2">
+      <c r="I177" s="5">
         <v>6.01545041166427E-2</v>
       </c>
-      <c r="I177" s="5" t="s">
+      <c r="J177" t="s">
         <v>1034</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="K177" s="3" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>1035</v>
       </c>
@@ -11483,25 +12539,28 @@
         <v>1036</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="H178" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="H178" s="2">
+      <c r="I178" s="5">
         <v>0.251177704947733</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="J178" t="s">
         <v>1040</v>
       </c>
-      <c r="J178" s="3" t="s">
+      <c r="K178" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1041</v>
       </c>
@@ -11515,25 +12574,28 @@
         <v>1042</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="G179" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="H179" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="H179" s="2">
+      <c r="I179" s="5">
         <v>5.8783139543005902E-2</v>
       </c>
-      <c r="I179" s="5" t="s">
+      <c r="J179" t="s">
         <v>1046</v>
       </c>
-      <c r="J179" s="3" t="s">
+      <c r="K179" s="3" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1047</v>
       </c>
@@ -11547,25 +12609,28 @@
         <v>1048</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="H180" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="H180" s="2">
+      <c r="I180" s="5">
         <v>0.104416351057586</v>
       </c>
-      <c r="I180" s="5" t="s">
+      <c r="J180" t="s">
         <v>13</v>
       </c>
-      <c r="J180" s="3" t="s">
+      <c r="K180" s="3" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1052</v>
       </c>
@@ -11579,25 +12644,28 @@
         <v>1053</v>
       </c>
       <c r="E181" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="G181" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="H181" s="2">
+      <c r="I181" s="5">
         <v>1.43076121779117E-2</v>
       </c>
-      <c r="I181" s="5" t="s">
+      <c r="J181" t="s">
         <v>31</v>
       </c>
-      <c r="J181" s="3" t="s">
+      <c r="K181" s="3" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1057</v>
       </c>
@@ -11611,25 +12679,28 @@
         <v>1058</v>
       </c>
       <c r="E182" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="G182" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="H182" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="H182" s="2">
+      <c r="I182" s="5">
         <v>1.89406050166025E-2</v>
       </c>
-      <c r="I182" s="5" t="s">
+      <c r="J182" t="s">
         <v>1062</v>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="K182" s="3" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1063</v>
       </c>
@@ -11643,25 +12714,28 @@
         <v>1064</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="G183" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="H183" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="H183" s="2">
+      <c r="I183" s="5">
         <v>0.389977150353782</v>
       </c>
-      <c r="I183" s="5" t="s">
+      <c r="J183" t="s">
         <v>1068</v>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="K183" s="3" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1069</v>
       </c>
@@ -11675,25 +12749,28 @@
         <v>1070</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="H184" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="H184" s="2">
+      <c r="I184" s="5">
         <v>0.26658781315637797</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="J184" t="s">
         <v>1074</v>
       </c>
-      <c r="J184" s="3" t="s">
+      <c r="K184" s="3" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1075</v>
       </c>
@@ -11707,25 +12784,28 @@
         <v>1076</v>
       </c>
       <c r="E185" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="H185" s="2">
+      <c r="I185" s="5">
         <v>6.01072923824508E-2</v>
       </c>
-      <c r="I185" s="5" t="s">
+      <c r="J185" t="s">
         <v>1080</v>
       </c>
-      <c r="J185" s="3" t="s">
+      <c r="K185" s="3" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1081</v>
       </c>
@@ -11739,25 +12819,28 @@
         <v>1082</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="H186" s="2">
+      <c r="I186" s="5">
         <v>0.12045695333716</v>
       </c>
-      <c r="I186" s="5" t="s">
+      <c r="J186" t="s">
         <v>1086</v>
       </c>
-      <c r="J186" s="3" t="s">
+      <c r="K186" s="3" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1087</v>
       </c>
@@ -11771,25 +12854,28 @@
         <v>1088</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="G187" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="H187" s="2">
+      <c r="I187" s="5">
         <v>9.5465039598079102E-2</v>
       </c>
-      <c r="I187" s="5" t="s">
+      <c r="J187" t="s">
         <v>1092</v>
       </c>
-      <c r="J187" s="3" t="s">
+      <c r="K187" s="3" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1093</v>
       </c>
@@ -11803,25 +12889,28 @@
         <v>1094</v>
       </c>
       <c r="E188" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="G188" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="H188" s="2">
+      <c r="I188" s="5">
         <v>8.07908703288506E-2</v>
       </c>
-      <c r="I188" s="5" t="s">
+      <c r="J188" t="s">
         <v>1098</v>
       </c>
-      <c r="J188" s="3" t="s">
+      <c r="K188" s="3" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1099</v>
       </c>
@@ -11835,25 +12924,28 @@
         <v>1100</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="H189" s="2">
+      <c r="I189" s="5">
         <v>0.16087038418396299</v>
       </c>
-      <c r="I189" s="5" t="s">
+      <c r="J189" t="s">
         <v>1104</v>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="K189" s="3" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1105</v>
       </c>
@@ -11867,25 +12959,28 @@
         <v>1106</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="H190" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="H190" s="2">
+      <c r="I190" s="5">
         <v>0.43863673460513197</v>
       </c>
-      <c r="I190" s="5" t="s">
+      <c r="J190" t="s">
         <v>1110</v>
       </c>
-      <c r="J190" s="3" t="s">
+      <c r="K190" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1111</v>
       </c>
@@ -11899,25 +12994,28 @@
         <v>1112</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="G191" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="H191" s="2">
+      <c r="I191" s="5">
         <v>5.1248019854141201E-2</v>
       </c>
-      <c r="I191" s="5" t="s">
+      <c r="J191" t="s">
         <v>1116</v>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="K191" s="3" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1117</v>
       </c>
@@ -11931,25 +13029,28 @@
         <v>1118</v>
       </c>
       <c r="E192" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="G192" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="H192" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="H192" s="2">
+      <c r="I192" s="5">
         <v>1.52704218859912E-2</v>
       </c>
-      <c r="I192" s="5" t="s">
+      <c r="J192" t="s">
         <v>1122</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="K192" s="3" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1123</v>
       </c>
@@ -11963,25 +13064,28 @@
         <v>1124</v>
       </c>
       <c r="E193" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="G193" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="H193" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="H193" s="2">
+      <c r="I193" s="5">
         <v>0.33217881101950297</v>
       </c>
-      <c r="I193" s="5" t="s">
+      <c r="J193" t="s">
         <v>1128</v>
       </c>
-      <c r="J193" s="3" t="s">
+      <c r="K193" s="3" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1129</v>
       </c>
@@ -11995,25 +13099,28 @@
         <v>1130</v>
       </c>
       <c r="E194" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="G194" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="H194" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="H194" s="2">
+      <c r="I194" s="5">
         <v>0.37244294206399298</v>
       </c>
-      <c r="I194" s="5" t="s">
+      <c r="J194" t="s">
         <v>1134</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="K194" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1135</v>
       </c>
@@ -12027,25 +13134,28 @@
         <v>1136</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="G195" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="H195" s="2">
+      <c r="I195" s="5">
         <v>2.7659731641877999E-2</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="J195" t="s">
         <v>1140</v>
       </c>
-      <c r="J195" s="3" t="s">
+      <c r="K195" s="3" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1141</v>
       </c>
@@ -12059,25 +13169,28 @@
         <v>1142</v>
       </c>
       <c r="E196" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="G196" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="H196" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="H196" s="2">
+      <c r="I196" s="5">
         <v>0.10839362394811</v>
       </c>
-      <c r="I196" s="5" t="s">
+      <c r="J196" t="s">
         <v>1146</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="K196" s="3" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1147</v>
       </c>
@@ -12091,25 +13204,28 @@
         <v>1148</v>
       </c>
       <c r="E197" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="G197" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="H197" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="H197" s="2">
+      <c r="I197" s="5">
         <v>0.15328690133162601</v>
       </c>
-      <c r="I197" s="5" t="s">
+      <c r="J197" t="s">
         <v>1152</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="K197" s="3" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1153</v>
       </c>
@@ -12123,25 +13239,28 @@
         <v>1154</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="G198" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="H198" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="H198" s="2">
+      <c r="I198" s="5">
         <v>5.6278169369524698E-2</v>
       </c>
-      <c r="I198" s="5" t="s">
+      <c r="J198" t="s">
         <v>1158</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="K198" s="3" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12155,25 +13274,28 @@
         <v>1160</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="G199" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="H199" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H199" s="2">
+      <c r="I199" s="5">
         <v>4.6991095942441899E-2</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="J199" t="s">
         <v>1164</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="K199" s="3" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1165</v>
       </c>
@@ -12187,25 +13309,28 @@
         <v>1166</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="G200" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="H200" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="H200" s="2">
+      <c r="I200" s="5">
         <v>4.7929486924498796</v>
       </c>
-      <c r="I200" s="5" t="s">
+      <c r="J200" t="s">
         <v>13</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="K200" s="3" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1170</v>
       </c>
@@ -12219,25 +13344,28 @@
         <v>1171</v>
       </c>
       <c r="E201" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="G201" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="H201" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="H201" s="2">
+      <c r="I201" s="5">
         <v>0.113419645572817</v>
       </c>
-      <c r="I201" s="5" t="s">
+      <c r="J201" t="s">
         <v>1175</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="K201" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1176</v>
       </c>
@@ -12251,25 +13379,28 @@
         <v>1177</v>
       </c>
       <c r="E202" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="G202" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="H202" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="H202" s="2">
+      <c r="I202" s="5">
         <v>5.9838505388761599E-2</v>
       </c>
-      <c r="I202" s="5" t="s">
+      <c r="J202" t="s">
         <v>1181</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="K202" s="3" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1182</v>
       </c>
@@ -12283,25 +13414,28 @@
         <v>1183</v>
       </c>
       <c r="E203" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="G203" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H203" s="2">
+      <c r="I203" s="5">
         <v>3.9884112612703498E-2</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="J203" t="s">
         <v>1187</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="K203" s="3" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1188</v>
       </c>
@@ -12315,25 +13449,28 @@
         <v>1189</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="G204" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="H204" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="H204" s="2">
+      <c r="I204" s="5">
         <v>6.1387863851285598</v>
       </c>
-      <c r="I204" s="5" t="s">
+      <c r="J204" t="s">
         <v>1193</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="K204" s="3" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1194</v>
       </c>
@@ -12347,25 +13484,28 @@
         <v>1195</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="G205" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="H205" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="H205" s="2">
+      <c r="I205" s="5">
         <v>2.3325591594192199E-2</v>
       </c>
-      <c r="I205" s="5" t="s">
+      <c r="J205" t="s">
         <v>1199</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="K205" s="3" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1200</v>
       </c>
@@ -12379,25 +13519,28 @@
         <v>1201</v>
       </c>
       <c r="E206" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="G206" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="H206" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="H206" s="2">
+      <c r="I206" s="5">
         <v>0.103056892833504</v>
       </c>
-      <c r="I206" s="5" t="s">
+      <c r="J206" t="s">
         <v>1205</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="K206" s="3" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1206</v>
       </c>
@@ -12411,25 +13554,28 @@
         <v>1207</v>
       </c>
       <c r="E207" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="G207" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="H207" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="H207" s="2">
+      <c r="I207" s="5">
         <v>7.9211390525190495E-2</v>
       </c>
-      <c r="I207" s="5" t="s">
+      <c r="J207" t="s">
         <v>1211</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="K207" s="3" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1212</v>
       </c>
@@ -12443,25 +13589,28 @@
         <v>1213</v>
       </c>
       <c r="E208" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="H208" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="H208" s="2">
+      <c r="I208" s="5">
         <v>0.12276119905435701</v>
       </c>
-      <c r="I208" s="5" t="s">
+      <c r="J208" t="s">
         <v>1217</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="K208" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1218</v>
       </c>
@@ -12475,21 +13624,24 @@
         <v>1219</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="H209" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="H209" s="2">
+      <c r="I209" s="5">
         <v>6.4625719595211295E-2</v>
       </c>
-      <c r="I209" s="5" t="s">
+      <c r="J209" t="s">
         <v>1223</v>
       </c>
-      <c r="J209" s="3" t="s">
+      <c r="K209" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
